--- a/notebooks/leukemiaBCellData.xlsx
+++ b/notebooks/leukemiaBCellData.xlsx
@@ -1456,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="C76">
-        <v>3.732690334320068</v>
+        <v>3.732877731323242</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
@@ -2170,7 +2170,7 @@
         <v>3</v>
       </c>
       <c r="C127">
-        <v>5.179648876190186</v>
+        <v>5.179412364959717</v>
       </c>
       <c r="D127" t="s">
         <v>5</v>
@@ -2198,7 +2198,7 @@
         <v>3</v>
       </c>
       <c r="C129">
-        <v>0.1730632036924362</v>
+        <v>0.1732702404260635</v>
       </c>
       <c r="D129" t="s">
         <v>5</v>
@@ -2212,7 +2212,7 @@
         <v>3</v>
       </c>
       <c r="C130">
-        <v>20.63176155090332</v>
+        <v>20.63150978088379</v>
       </c>
       <c r="D130" t="s">
         <v>5</v>
@@ -2226,7 +2226,7 @@
         <v>3</v>
       </c>
       <c r="C131">
-        <v>21.97147560119629</v>
+        <v>21.97099494934082</v>
       </c>
       <c r="D131" t="s">
         <v>5</v>
@@ -2324,7 +2324,7 @@
         <v>3</v>
       </c>
       <c r="C138">
-        <v>2.005433082580566</v>
+        <v>2.005378246307373</v>
       </c>
       <c r="D138" t="s">
         <v>5</v>
@@ -3164,7 +3164,7 @@
         <v>3</v>
       </c>
       <c r="C198">
-        <v>2.499109983444214</v>
+        <v>2.499058961868286</v>
       </c>
       <c r="D198" t="s">
         <v>5</v>
@@ -3402,7 +3402,7 @@
         <v>3</v>
       </c>
       <c r="C215">
-        <v>2.859352350234985</v>
+        <v>2.85959267616272</v>
       </c>
       <c r="D215" t="s">
         <v>5</v>
@@ -4186,7 +4186,7 @@
         <v>3</v>
       </c>
       <c r="C271">
-        <v>1.848709106445312</v>
+        <v>1.848454833030701</v>
       </c>
       <c r="D271" t="s">
         <v>5</v>
@@ -4340,7 +4340,7 @@
         <v>3</v>
       </c>
       <c r="C282">
-        <v>2.273444652557373</v>
+        <v>2.273298025131226</v>
       </c>
       <c r="D282" t="s">
         <v>5</v>
@@ -4354,7 +4354,7 @@
         <v>3</v>
       </c>
       <c r="C283">
-        <v>1.06805157661438</v>
+        <v>1.067717313766479</v>
       </c>
       <c r="D283" t="s">
         <v>5</v>
@@ -4732,7 +4732,7 @@
         <v>3</v>
       </c>
       <c r="C310">
-        <v>0.7121917009353638</v>
+        <v>0.7114249467849731</v>
       </c>
       <c r="D310" t="s">
         <v>5</v>
@@ -5180,7 +5180,7 @@
         <v>3</v>
       </c>
       <c r="C342">
-        <v>6.186069965362549</v>
+        <v>6.186172962188721</v>
       </c>
       <c r="D342" t="s">
         <v>5</v>
@@ -5194,7 +5194,7 @@
         <v>3</v>
       </c>
       <c r="C343">
-        <v>2.638455629348755</v>
+        <v>2.638524055480957</v>
       </c>
       <c r="D343" t="s">
         <v>5</v>
@@ -5600,7 +5600,7 @@
         <v>3</v>
       </c>
       <c r="C372">
-        <v>4.226785659790039</v>
+        <v>4.227097511291504</v>
       </c>
       <c r="D372" t="s">
         <v>5</v>
@@ -5670,7 +5670,7 @@
         <v>3</v>
       </c>
       <c r="C377">
-        <v>2.195013523101807</v>
+        <v>2.194804906845093</v>
       </c>
       <c r="D377" t="s">
         <v>5</v>
@@ -5922,7 +5922,7 @@
         <v>3</v>
       </c>
       <c r="C395">
-        <v>2.557477951049805</v>
+        <v>2.557794570922852</v>
       </c>
       <c r="D395" t="s">
         <v>5</v>
@@ -5992,7 +5992,7 @@
         <v>3</v>
       </c>
       <c r="C400">
-        <v>10.36240291595459</v>
+        <v>10.36265182495117</v>
       </c>
       <c r="D400" t="s">
         <v>5</v>
@@ -6160,7 +6160,7 @@
         <v>3</v>
       </c>
       <c r="C412">
-        <v>3.819905519485474</v>
+        <v>3.819680452346802</v>
       </c>
       <c r="D412" t="s">
         <v>5</v>
@@ -6174,7 +6174,7 @@
         <v>3</v>
       </c>
       <c r="C413">
-        <v>3.396697521209717</v>
+        <v>3.397140979766846</v>
       </c>
       <c r="D413" t="s">
         <v>5</v>
@@ -6328,7 +6328,7 @@
         <v>3</v>
       </c>
       <c r="C424">
-        <v>4.199546337127686</v>
+        <v>4.199635028839111</v>
       </c>
       <c r="D424" t="s">
         <v>5</v>
@@ -6384,7 +6384,7 @@
         <v>3</v>
       </c>
       <c r="C428">
-        <v>0.7056195139884949</v>
+        <v>0.7060047388076782</v>
       </c>
       <c r="D428" t="s">
         <v>5</v>
@@ -6412,7 +6412,7 @@
         <v>3</v>
       </c>
       <c r="C430">
-        <v>1.035228729248047</v>
+        <v>1.034804701805115</v>
       </c>
       <c r="D430" t="s">
         <v>5</v>
@@ -6524,7 +6524,7 @@
         <v>3</v>
       </c>
       <c r="C438">
-        <v>10.77642059326172</v>
+        <v>10.77656078338623</v>
       </c>
       <c r="D438" t="s">
         <v>5</v>
@@ -6552,7 +6552,7 @@
         <v>3</v>
       </c>
       <c r="C440">
-        <v>0.7665920257568359</v>
+        <v>0.7665689587593079</v>
       </c>
       <c r="D440" t="s">
         <v>5</v>
@@ -6622,7 +6622,7 @@
         <v>3</v>
       </c>
       <c r="C445">
-        <v>3.510372400283813</v>
+        <v>3.510622501373291</v>
       </c>
       <c r="D445" t="s">
         <v>5</v>
@@ -6930,7 +6930,7 @@
         <v>3</v>
       </c>
       <c r="C467">
-        <v>2.013067960739136</v>
+        <v>2.012988567352295</v>
       </c>
       <c r="D467" t="s">
         <v>5</v>
@@ -7070,7 +7070,7 @@
         <v>3</v>
       </c>
       <c r="C477">
-        <v>5.920169830322266</v>
+        <v>5.919927597045898</v>
       </c>
       <c r="D477" t="s">
         <v>5</v>
@@ -7084,7 +7084,7 @@
         <v>3</v>
       </c>
       <c r="C478">
-        <v>2.551303148269653</v>
+        <v>2.551181316375732</v>
       </c>
       <c r="D478" t="s">
         <v>5</v>
@@ -7770,7 +7770,7 @@
         <v>3</v>
       </c>
       <c r="C527">
-        <v>2.080950260162354</v>
+        <v>2.0811767578125</v>
       </c>
       <c r="D527" t="s">
         <v>5</v>
@@ -8428,7 +8428,7 @@
         <v>3</v>
       </c>
       <c r="C574">
-        <v>0.9727984070777893</v>
+        <v>0.972574770450592</v>
       </c>
       <c r="D574" t="s">
         <v>5</v>
@@ -8470,7 +8470,7 @@
         <v>3</v>
       </c>
       <c r="C577">
-        <v>7.284700870513916</v>
+        <v>7.284801483154297</v>
       </c>
       <c r="D577" t="s">
         <v>5</v>
@@ -9170,7 +9170,7 @@
         <v>3</v>
       </c>
       <c r="C627">
-        <v>7.046982288360596</v>
+        <v>7.047130584716797</v>
       </c>
       <c r="D627" t="s">
         <v>5</v>
@@ -9310,7 +9310,7 @@
         <v>3</v>
       </c>
       <c r="C637">
-        <v>4.474044322967529</v>
+        <v>4.473982334136963</v>
       </c>
       <c r="D637" t="s">
         <v>5</v>
@@ -9352,7 +9352,7 @@
         <v>3</v>
       </c>
       <c r="C640">
-        <v>5.753945827484131</v>
+        <v>5.753895282745361</v>
       </c>
       <c r="D640" t="s">
         <v>5</v>
@@ -9534,7 +9534,7 @@
         <v>3</v>
       </c>
       <c r="C653">
-        <v>1.527619600296021</v>
+        <v>1.527676582336426</v>
       </c>
       <c r="D653" t="s">
         <v>5</v>
@@ -9548,7 +9548,7 @@
         <v>3</v>
       </c>
       <c r="C654">
-        <v>4.595050811767578</v>
+        <v>4.595224857330322</v>
       </c>
       <c r="D654" t="s">
         <v>5</v>
@@ -10052,7 +10052,7 @@
         <v>3</v>
       </c>
       <c r="C690">
-        <v>11.32359027862549</v>
+        <v>11.32365131378174</v>
       </c>
       <c r="D690" t="s">
         <v>5</v>
@@ -10080,7 +10080,7 @@
         <v>3</v>
       </c>
       <c r="C692">
-        <v>7.616141796112061</v>
+        <v>7.616652965545654</v>
       </c>
       <c r="D692" t="s">
         <v>5</v>
@@ -10094,7 +10094,7 @@
         <v>3</v>
       </c>
       <c r="C693">
-        <v>9.867006301879883</v>
+        <v>9.867817878723145</v>
       </c>
       <c r="D693" t="s">
         <v>5</v>
@@ -10206,7 +10206,7 @@
         <v>3</v>
       </c>
       <c r="C701">
-        <v>6.692083358764648</v>
+        <v>6.692014217376709</v>
       </c>
       <c r="D701" t="s">
         <v>5</v>
@@ -11648,7 +11648,7 @@
         <v>3</v>
       </c>
       <c r="C804">
-        <v>9.576339721679688</v>
+        <v>9.576506614685059</v>
       </c>
       <c r="D804" t="s">
         <v>5</v>
@@ -12264,7 +12264,7 @@
         <v>3</v>
       </c>
       <c r="C848">
-        <v>11.35938358306885</v>
+        <v>11.35944938659668</v>
       </c>
       <c r="D848" t="s">
         <v>5</v>
@@ -13566,7 +13566,7 @@
         <v>3</v>
       </c>
       <c r="C941">
-        <v>2.608205318450928</v>
+        <v>2.608289957046509</v>
       </c>
       <c r="D941" t="s">
         <v>5</v>
@@ -14182,7 +14182,7 @@
         <v>3</v>
       </c>
       <c r="C985">
-        <v>5.422561168670654</v>
+        <v>5.423060894012451</v>
       </c>
       <c r="D985" t="s">
         <v>5</v>
@@ -14210,7 +14210,7 @@
         <v>3</v>
       </c>
       <c r="C987">
-        <v>21.9497127532959</v>
+        <v>22.30880546569824</v>
       </c>
       <c r="D987" t="s">
         <v>5</v>
@@ -14308,7 +14308,7 @@
         <v>3</v>
       </c>
       <c r="C994">
-        <v>6.878796577453613</v>
+        <v>6.8786301612854</v>
       </c>
       <c r="D994" t="s">
         <v>5</v>
@@ -14644,7 +14644,7 @@
         <v>3</v>
       </c>
       <c r="C1018">
-        <v>21.32491302490234</v>
+        <v>21.32485580444336</v>
       </c>
       <c r="D1018" t="s">
         <v>5</v>
@@ -14700,7 +14700,7 @@
         <v>3</v>
       </c>
       <c r="C1022">
-        <v>5.75508975982666</v>
+        <v>5.754999160766602</v>
       </c>
       <c r="D1022" t="s">
         <v>5</v>
@@ -15316,7 +15316,7 @@
         <v>3</v>
       </c>
       <c r="C1066">
-        <v>40.49717712402344</v>
+        <v>40.69513702392578</v>
       </c>
       <c r="D1066" t="s">
         <v>5</v>
@@ -15540,7 +15540,7 @@
         <v>3</v>
       </c>
       <c r="C1082">
-        <v>16.80134391784668</v>
+        <v>16.80143737792969</v>
       </c>
       <c r="D1082" t="s">
         <v>5</v>
@@ -15568,7 +15568,7 @@
         <v>3</v>
       </c>
       <c r="C1084">
-        <v>233.2880249023438</v>
+        <v>233.2877960205078</v>
       </c>
       <c r="D1084" t="s">
         <v>5</v>
@@ -15764,7 +15764,7 @@
         <v>3</v>
       </c>
       <c r="C1098">
-        <v>6.439175128936768</v>
+        <v>6.439363479614258</v>
       </c>
       <c r="D1098" t="s">
         <v>5</v>
@@ -16044,7 +16044,7 @@
         <v>3</v>
       </c>
       <c r="C1118">
-        <v>6.79631233215332</v>
+        <v>6.796461582183838</v>
       </c>
       <c r="D1118" t="s">
         <v>5</v>
@@ -16310,7 +16310,7 @@
         <v>3</v>
       </c>
       <c r="C1137">
-        <v>9.22691535949707</v>
+        <v>9.227107048034668</v>
       </c>
       <c r="D1137" t="s">
         <v>5</v>
@@ -16478,7 +16478,7 @@
         <v>3</v>
       </c>
       <c r="C1149">
-        <v>42.14938354492188</v>
+        <v>42.1492919921875</v>
       </c>
       <c r="D1149" t="s">
         <v>5</v>
@@ -17108,7 +17108,7 @@
         <v>3</v>
       </c>
       <c r="C1194">
-        <v>177.8741302490234</v>
+        <v>177.8736572265625</v>
       </c>
       <c r="D1194" t="s">
         <v>5</v>
@@ -17122,7 +17122,7 @@
         <v>3</v>
       </c>
       <c r="C1195">
-        <v>182.2930755615234</v>
+        <v>182.29248046875</v>
       </c>
       <c r="D1195" t="s">
         <v>5</v>
@@ -17262,7 +17262,7 @@
         <v>3</v>
       </c>
       <c r="C1205">
-        <v>124.2719039916992</v>
+        <v>124.2721328735352</v>
       </c>
       <c r="D1205" t="s">
         <v>5</v>
@@ -17360,7 +17360,7 @@
         <v>3</v>
       </c>
       <c r="C1212">
-        <v>0.07064033299684525</v>
+        <v>0.07066535204648972</v>
       </c>
       <c r="D1212" t="s">
         <v>5</v>
@@ -17752,7 +17752,7 @@
         <v>3</v>
       </c>
       <c r="C1240">
-        <v>24.07160949707031</v>
+        <v>24.07196998596191</v>
       </c>
       <c r="D1240" t="s">
         <v>5</v>
@@ -18536,7 +18536,7 @@
         <v>3</v>
       </c>
       <c r="C1296">
-        <v>255.8027954101562</v>
+        <v>255.8035125732422</v>
       </c>
       <c r="D1296" t="s">
         <v>5</v>
@@ -18690,7 +18690,7 @@
         <v>3</v>
       </c>
       <c r="C1307">
-        <v>3.644633054733276</v>
+        <v>3.644742250442505</v>
       </c>
       <c r="D1307" t="s">
         <v>5</v>
@@ -19208,7 +19208,7 @@
         <v>3</v>
       </c>
       <c r="C1344">
-        <v>5.989652156829834</v>
+        <v>5.990254878997803</v>
       </c>
       <c r="D1344" t="s">
         <v>5</v>
@@ -19264,7 +19264,7 @@
         <v>3</v>
       </c>
       <c r="C1348">
-        <v>61.68110656738281</v>
+        <v>61.68099594116211</v>
       </c>
       <c r="D1348" t="s">
         <v>5</v>
@@ -19586,7 +19586,7 @@
         <v>3</v>
       </c>
       <c r="C1371">
-        <v>0.8439745306968689</v>
+        <v>0.8440056443214417</v>
       </c>
       <c r="D1371" t="s">
         <v>5</v>
@@ -19740,7 +19740,7 @@
         <v>3</v>
       </c>
       <c r="C1382">
-        <v>162.8979034423828</v>
+        <v>162.8977355957031</v>
       </c>
       <c r="D1382" t="s">
         <v>5</v>
@@ -19908,7 +19908,7 @@
         <v>3</v>
       </c>
       <c r="C1394">
-        <v>129.5283813476562</v>
+        <v>129.5279541015625</v>
       </c>
       <c r="D1394" t="s">
         <v>5</v>
@@ -19922,7 +19922,7 @@
         <v>3</v>
       </c>
       <c r="C1395">
-        <v>42.4348030090332</v>
+        <v>42.43387222290039</v>
       </c>
       <c r="D1395" t="s">
         <v>5</v>
@@ -20874,7 +20874,7 @@
         <v>3</v>
       </c>
       <c r="C1463">
-        <v>2.650327682495117</v>
+        <v>2.650001287460327</v>
       </c>
       <c r="D1463" t="s">
         <v>5</v>
@@ -21574,7 +21574,7 @@
         <v>3</v>
       </c>
       <c r="C1513">
-        <v>122.015022277832</v>
+        <v>122.0153350830078</v>
       </c>
       <c r="D1513" t="s">
         <v>5</v>
@@ -21770,7 +21770,7 @@
         <v>3</v>
       </c>
       <c r="C1527">
-        <v>64.86415100097656</v>
+        <v>64.86231994628906</v>
       </c>
       <c r="D1527" t="s">
         <v>5</v>
@@ -21840,7 +21840,7 @@
         <v>3</v>
       </c>
       <c r="C1532">
-        <v>45.96828460693359</v>
+        <v>45.96772384643555</v>
       </c>
       <c r="D1532" t="s">
         <v>5</v>
@@ -21854,7 +21854,7 @@
         <v>3</v>
       </c>
       <c r="C1533">
-        <v>93.42706298828125</v>
+        <v>93.42690277099609</v>
       </c>
       <c r="D1533" t="s">
         <v>5</v>
@@ -21910,7 +21910,7 @@
         <v>3</v>
       </c>
       <c r="C1537">
-        <v>67.46013641357422</v>
+        <v>67.46012878417969</v>
       </c>
       <c r="D1537" t="s">
         <v>5</v>
@@ -21924,7 +21924,7 @@
         <v>3</v>
       </c>
       <c r="C1538">
-        <v>26.90546798706055</v>
+        <v>26.9055290222168</v>
       </c>
       <c r="D1538" t="s">
         <v>5</v>
@@ -21980,7 +21980,7 @@
         <v>3</v>
       </c>
       <c r="C1542">
-        <v>47.37278747558594</v>
+        <v>47.37211227416992</v>
       </c>
       <c r="D1542" t="s">
         <v>5</v>
@@ -23394,7 +23394,7 @@
         <v>3</v>
       </c>
       <c r="C1643">
-        <v>18.74601745605469</v>
+        <v>18.74496078491211</v>
       </c>
       <c r="D1643" t="s">
         <v>5</v>
@@ -23408,7 +23408,7 @@
         <v>3</v>
       </c>
       <c r="C1644">
-        <v>41.73955535888672</v>
+        <v>41.739990234375</v>
       </c>
       <c r="D1644" t="s">
         <v>5</v>
@@ -24150,7 +24150,7 @@
         <v>3</v>
       </c>
       <c r="C1697">
-        <v>0.9988254904747009</v>
+        <v>0.9995380640029907</v>
       </c>
       <c r="D1697" t="s">
         <v>5</v>
@@ -24738,7 +24738,7 @@
         <v>3</v>
       </c>
       <c r="C1739">
-        <v>4.894294738769531</v>
+        <v>4.894343852996826</v>
       </c>
       <c r="D1739" t="s">
         <v>5</v>
@@ -24878,7 +24878,7 @@
         <v>3</v>
       </c>
       <c r="C1749">
-        <v>0.2827818393707275</v>
+        <v>0.2827526926994324</v>
       </c>
       <c r="D1749" t="s">
         <v>5</v>
@@ -24892,7 +24892,7 @@
         <v>3</v>
       </c>
       <c r="C1750">
-        <v>5.168784141540527</v>
+        <v>5.168734550476074</v>
       </c>
       <c r="D1750" t="s">
         <v>5</v>
@@ -24906,7 +24906,7 @@
         <v>3</v>
       </c>
       <c r="C1751">
-        <v>1.41214919090271</v>
+        <v>1.412095427513123</v>
       </c>
       <c r="D1751" t="s">
         <v>5</v>
@@ -24920,7 +24920,7 @@
         <v>3</v>
       </c>
       <c r="C1752">
-        <v>1.623690128326416</v>
+        <v>1.623631000518799</v>
       </c>
       <c r="D1752" t="s">
         <v>5</v>
@@ -25256,7 +25256,7 @@
         <v>3</v>
       </c>
       <c r="C1776">
-        <v>6.316974639892578</v>
+        <v>6.316985607147217</v>
       </c>
       <c r="D1776" t="s">
         <v>5</v>
@@ -25452,7 +25452,7 @@
         <v>3</v>
       </c>
       <c r="C1790">
-        <v>118.343635559082</v>
+        <v>118.3443374633789</v>
       </c>
       <c r="D1790" t="s">
         <v>5</v>
@@ -25536,7 +25536,7 @@
         <v>3</v>
       </c>
       <c r="C1796">
-        <v>82.29769134521484</v>
+        <v>82.29757690429688</v>
       </c>
       <c r="D1796" t="s">
         <v>6</v>
@@ -25578,7 +25578,7 @@
         <v>3</v>
       </c>
       <c r="C1799">
-        <v>2.061600685119629</v>
+        <v>2.061935186386108</v>
       </c>
       <c r="D1799" t="s">
         <v>6</v>
@@ -25620,7 +25620,7 @@
         <v>3</v>
       </c>
       <c r="C1802">
-        <v>3.48515796661377</v>
+        <v>3.485044717788696</v>
       </c>
       <c r="D1802" t="s">
         <v>6</v>
@@ -25942,7 +25942,7 @@
         <v>3</v>
       </c>
       <c r="C1825">
-        <v>29.56057548522949</v>
+        <v>29.56064987182617</v>
       </c>
       <c r="D1825" t="s">
         <v>6</v>
@@ -26068,7 +26068,7 @@
         <v>3</v>
       </c>
       <c r="C1834">
-        <v>187.6233673095703</v>
+        <v>187.6239166259766</v>
       </c>
       <c r="D1834" t="s">
         <v>6</v>
@@ -26124,7 +26124,7 @@
         <v>3</v>
       </c>
       <c r="C1838">
-        <v>3.115761756896973</v>
+        <v>3.116013765335083</v>
       </c>
       <c r="D1838" t="s">
         <v>6</v>
@@ -26138,7 +26138,7 @@
         <v>3</v>
       </c>
       <c r="C1839">
-        <v>8.610665321350098</v>
+        <v>8.610397338867188</v>
       </c>
       <c r="D1839" t="s">
         <v>6</v>
@@ -26348,7 +26348,7 @@
         <v>3</v>
       </c>
       <c r="C1854">
-        <v>4.94837474822998</v>
+        <v>4.948118209838867</v>
       </c>
       <c r="D1854" t="s">
         <v>6</v>
@@ -26376,7 +26376,7 @@
         <v>3</v>
       </c>
       <c r="C1856">
-        <v>19.53592681884766</v>
+        <v>19.5356388092041</v>
       </c>
       <c r="D1856" t="s">
         <v>6</v>
@@ -26432,7 +26432,7 @@
         <v>3</v>
       </c>
       <c r="C1860">
-        <v>11.45117568969727</v>
+        <v>11.45120906829834</v>
       </c>
       <c r="D1860" t="s">
         <v>6</v>
@@ -26446,7 +26446,7 @@
         <v>3</v>
       </c>
       <c r="C1861">
-        <v>25.1751708984375</v>
+        <v>25.1751766204834</v>
       </c>
       <c r="D1861" t="s">
         <v>6</v>
@@ -27104,7 +27104,7 @@
         <v>3</v>
       </c>
       <c r="C1908">
-        <v>177.8002624511719</v>
+        <v>177.8000030517578</v>
       </c>
       <c r="D1908" t="s">
         <v>6</v>
@@ -27314,7 +27314,7 @@
         <v>3</v>
       </c>
       <c r="C1923">
-        <v>0.737112283706665</v>
+        <v>0.737112820148468</v>
       </c>
       <c r="D1923" t="s">
         <v>6</v>
@@ -27398,7 +27398,7 @@
         <v>3</v>
       </c>
       <c r="C1929">
-        <v>39.31500244140625</v>
+        <v>39.3146858215332</v>
       </c>
       <c r="D1929" t="s">
         <v>6</v>
@@ -27412,7 +27412,7 @@
         <v>3</v>
       </c>
       <c r="C1930">
-        <v>34.166015625</v>
+        <v>34.16560745239258</v>
       </c>
       <c r="D1930" t="s">
         <v>6</v>
@@ -27972,7 +27972,7 @@
         <v>3</v>
       </c>
       <c r="C1970">
-        <v>0.7386458516120911</v>
+        <v>0.7386041879653931</v>
       </c>
       <c r="D1970" t="s">
         <v>6</v>
@@ -28028,7 +28028,7 @@
         <v>3</v>
       </c>
       <c r="C1974">
-        <v>0.6288082003593445</v>
+        <v>0.629095196723938</v>
       </c>
       <c r="D1974" t="s">
         <v>6</v>
@@ -28588,7 +28588,7 @@
         <v>3</v>
       </c>
       <c r="C2014">
-        <v>5.640494346618652</v>
+        <v>5.64033317565918</v>
       </c>
       <c r="D2014" t="s">
         <v>6</v>
@@ -28658,7 +28658,7 @@
         <v>3</v>
       </c>
       <c r="C2019">
-        <v>4.811377048492432</v>
+        <v>4.811333179473877</v>
       </c>
       <c r="D2019" t="s">
         <v>6</v>
@@ -28686,7 +28686,7 @@
         <v>3</v>
       </c>
       <c r="C2021">
-        <v>0.5166468620300293</v>
+        <v>0.516690731048584</v>
       </c>
       <c r="D2021" t="s">
         <v>6</v>
@@ -28728,7 +28728,7 @@
         <v>3</v>
       </c>
       <c r="C2024">
-        <v>2.495488882064819</v>
+        <v>2.495399951934814</v>
       </c>
       <c r="D2024" t="s">
         <v>6</v>
@@ -28756,7 +28756,7 @@
         <v>3</v>
       </c>
       <c r="C2026">
-        <v>5.82867431640625</v>
+        <v>5.828714847564697</v>
       </c>
       <c r="D2026" t="s">
         <v>6</v>
@@ -29428,7 +29428,7 @@
         <v>3</v>
       </c>
       <c r="C2074">
-        <v>45.36913681030273</v>
+        <v>45.36874389648438</v>
       </c>
       <c r="D2074" t="s">
         <v>6</v>
@@ -29442,7 +29442,7 @@
         <v>3</v>
       </c>
       <c r="C2075">
-        <v>48.60028076171875</v>
+        <v>48.60005569458008</v>
       </c>
       <c r="D2075" t="s">
         <v>6</v>
@@ -29666,7 +29666,7 @@
         <v>3</v>
       </c>
       <c r="C2091">
-        <v>9.503513336181641</v>
+        <v>9.503843307495117</v>
       </c>
       <c r="D2091" t="s">
         <v>6</v>
@@ -29750,7 +29750,7 @@
         <v>3</v>
       </c>
       <c r="C2097">
-        <v>14.12378120422363</v>
+        <v>14.12370872497559</v>
       </c>
       <c r="D2097" t="s">
         <v>6</v>
@@ -30492,7 +30492,7 @@
         <v>3</v>
       </c>
       <c r="C2150">
-        <v>7.008299350738525</v>
+        <v>7.008303165435791</v>
       </c>
       <c r="D2150" t="s">
         <v>6</v>
@@ -31542,7 +31542,7 @@
         <v>3</v>
       </c>
       <c r="C2225">
-        <v>6.045248508453369</v>
+        <v>6.044928073883057</v>
       </c>
       <c r="D2225" t="s">
         <v>6</v>
@@ -31976,7 +31976,7 @@
         <v>3</v>
       </c>
       <c r="C2256">
-        <v>4.001353740692139</v>
+        <v>4.001401901245117</v>
       </c>
       <c r="D2256" t="s">
         <v>6</v>
@@ -32004,7 +32004,7 @@
         <v>3</v>
       </c>
       <c r="C2258">
-        <v>8.218790054321289</v>
+        <v>8.21884822845459</v>
       </c>
       <c r="D2258" t="s">
         <v>6</v>
@@ -32172,7 +32172,7 @@
         <v>3</v>
       </c>
       <c r="C2270">
-        <v>95.61248016357422</v>
+        <v>95.61243438720703</v>
       </c>
       <c r="D2270" t="s">
         <v>6</v>
@@ -32830,7 +32830,7 @@
         <v>3</v>
       </c>
       <c r="C2317">
-        <v>2.341564655303955</v>
+        <v>2.341447114944458</v>
       </c>
       <c r="D2317" t="s">
         <v>6</v>
@@ -32914,7 +32914,7 @@
         <v>3</v>
       </c>
       <c r="C2323">
-        <v>1.380538702011108</v>
+        <v>1.380506873130798</v>
       </c>
       <c r="D2323" t="s">
         <v>6</v>
@@ -32942,7 +32942,7 @@
         <v>3</v>
       </c>
       <c r="C2325">
-        <v>12.1020393371582</v>
+        <v>12.10203742980957</v>
       </c>
       <c r="D2325" t="s">
         <v>6</v>
@@ -33222,7 +33222,7 @@
         <v>3</v>
       </c>
       <c r="C2345">
-        <v>11.63683319091797</v>
+        <v>11.63674736022949</v>
       </c>
       <c r="D2345" t="s">
         <v>6</v>
@@ -33670,7 +33670,7 @@
         <v>3</v>
       </c>
       <c r="C2377">
-        <v>6.748078346252441</v>
+        <v>6.747479438781738</v>
       </c>
       <c r="D2377" t="s">
         <v>6</v>
@@ -34062,7 +34062,7 @@
         <v>3</v>
       </c>
       <c r="C2405">
-        <v>16.80751419067383</v>
+        <v>16.80748176574707</v>
       </c>
       <c r="D2405" t="s">
         <v>6</v>
@@ -34076,7 +34076,7 @@
         <v>3</v>
       </c>
       <c r="C2406">
-        <v>4.801474571228027</v>
+        <v>4.801543712615967</v>
       </c>
       <c r="D2406" t="s">
         <v>6</v>
@@ -34104,7 +34104,7 @@
         <v>3</v>
       </c>
       <c r="C2408">
-        <v>18.08042335510254</v>
+        <v>18.08063316345215</v>
       </c>
       <c r="D2408" t="s">
         <v>6</v>
@@ -34692,7 +34692,7 @@
         <v>3</v>
       </c>
       <c r="C2450">
-        <v>9.246701240539551</v>
+        <v>9.24668025970459</v>
       </c>
       <c r="D2450" t="s">
         <v>6</v>
@@ -35042,7 +35042,7 @@
         <v>3</v>
       </c>
       <c r="C2475">
-        <v>2.884628057479858</v>
+        <v>2.884170770645142</v>
       </c>
       <c r="D2475" t="s">
         <v>6</v>
@@ -35056,7 +35056,7 @@
         <v>3</v>
       </c>
       <c r="C2476">
-        <v>4.08968448638916</v>
+        <v>4.089203357696533</v>
       </c>
       <c r="D2476" t="s">
         <v>6</v>
@@ -35140,7 +35140,7 @@
         <v>3</v>
       </c>
       <c r="C2482">
-        <v>7.143794536590576</v>
+        <v>7.144250869750977</v>
       </c>
       <c r="D2482" t="s">
         <v>6</v>
@@ -35350,7 +35350,7 @@
         <v>3</v>
       </c>
       <c r="C2497">
-        <v>1.868057727813721</v>
+        <v>1.868033051490784</v>
       </c>
       <c r="D2497" t="s">
         <v>6</v>
@@ -35504,7 +35504,7 @@
         <v>3</v>
       </c>
       <c r="C2508">
-        <v>0.09943126887083054</v>
+        <v>0.09898391366004944</v>
       </c>
       <c r="D2508" t="s">
         <v>6</v>
@@ -35854,7 +35854,7 @@
         <v>3</v>
       </c>
       <c r="C2533">
-        <v>7.697349071502686</v>
+        <v>7.697753429412842</v>
       </c>
       <c r="D2533" t="s">
         <v>6</v>
@@ -35868,7 +35868,7 @@
         <v>3</v>
       </c>
       <c r="C2534">
-        <v>4.051213264465332</v>
+        <v>4.051458358764648</v>
       </c>
       <c r="D2534" t="s">
         <v>6</v>
@@ -35910,7 +35910,7 @@
         <v>3</v>
       </c>
       <c r="C2537">
-        <v>7.448032855987549</v>
+        <v>7.448225021362305</v>
       </c>
       <c r="D2537" t="s">
         <v>6</v>
@@ -36302,7 +36302,7 @@
         <v>3</v>
       </c>
       <c r="C2565">
-        <v>0.0279165618121624</v>
+        <v>0.02795523405075073</v>
       </c>
       <c r="D2565" t="s">
         <v>6</v>
@@ -36442,7 +36442,7 @@
         <v>3</v>
       </c>
       <c r="C2575">
-        <v>6.166502952575684</v>
+        <v>6.166637897491455</v>
       </c>
       <c r="D2575" t="s">
         <v>6</v>
@@ -36484,7 +36484,7 @@
         <v>3</v>
       </c>
       <c r="C2578">
-        <v>11.43594264984131</v>
+        <v>11.43606376647949</v>
       </c>
       <c r="D2578" t="s">
         <v>6</v>
@@ -36694,7 +36694,7 @@
         <v>3</v>
       </c>
       <c r="C2593">
-        <v>0.8068462610244751</v>
+        <v>0.806596040725708</v>
       </c>
       <c r="D2593" t="s">
         <v>6</v>
@@ -36736,7 +36736,7 @@
         <v>3</v>
       </c>
       <c r="C2596">
-        <v>0.6640890836715698</v>
+        <v>0.6640746593475342</v>
       </c>
       <c r="D2596" t="s">
         <v>6</v>
@@ -36806,7 +36806,7 @@
         <v>3</v>
       </c>
       <c r="C2601">
-        <v>2.048979520797729</v>
+        <v>2.048964023590088</v>
       </c>
       <c r="D2601" t="s">
         <v>6</v>
@@ -36960,7 +36960,7 @@
         <v>3</v>
       </c>
       <c r="C2612">
-        <v>1.573427081108093</v>
+        <v>1.573607563972473</v>
       </c>
       <c r="D2612" t="s">
         <v>6</v>
@@ -36974,7 +36974,7 @@
         <v>3</v>
       </c>
       <c r="C2613">
-        <v>2.655423402786255</v>
+        <v>2.655303001403809</v>
       </c>
       <c r="D2613" t="s">
         <v>6</v>
@@ -37030,7 +37030,7 @@
         <v>3</v>
       </c>
       <c r="C2617">
-        <v>1.053022265434265</v>
+        <v>1.052830219268799</v>
       </c>
       <c r="D2617" t="s">
         <v>6</v>
@@ -37044,7 +37044,7 @@
         <v>3</v>
       </c>
       <c r="C2618">
-        <v>1.249459743499756</v>
+        <v>1.249463796615601</v>
       </c>
       <c r="D2618" t="s">
         <v>6</v>
@@ -37058,7 +37058,7 @@
         <v>3</v>
       </c>
       <c r="C2619">
-        <v>0.9310556054115295</v>
+        <v>0.9305766224861145</v>
       </c>
       <c r="D2619" t="s">
         <v>6</v>
@@ -37520,7 +37520,7 @@
         <v>3</v>
       </c>
       <c r="C2652">
-        <v>17.91772651672363</v>
+        <v>17.91671943664551</v>
       </c>
       <c r="D2652" t="s">
         <v>6</v>
@@ -37856,7 +37856,7 @@
         <v>3</v>
       </c>
       <c r="C2676">
-        <v>3.832809209823608</v>
+        <v>3.833284854888916</v>
       </c>
       <c r="D2676" t="s">
         <v>6</v>
@@ -39508,7 +39508,7 @@
         <v>3</v>
       </c>
       <c r="C2794">
-        <v>1.170989394187927</v>
+        <v>1.171482920646667</v>
       </c>
       <c r="D2794" t="s">
         <v>7</v>
@@ -39746,7 +39746,7 @@
         <v>3</v>
       </c>
       <c r="C2811">
-        <v>6.871695995330811</v>
+        <v>6.871694564819336</v>
       </c>
       <c r="D2811" t="s">
         <v>7</v>
@@ -39802,7 +39802,7 @@
         <v>3</v>
       </c>
       <c r="C2815">
-        <v>7.915514469146729</v>
+        <v>7.915824413299561</v>
       </c>
       <c r="D2815" t="s">
         <v>7</v>
@@ -39830,7 +39830,7 @@
         <v>3</v>
       </c>
       <c r="C2817">
-        <v>21.29389953613281</v>
+        <v>21.29461288452148</v>
       </c>
       <c r="D2817" t="s">
         <v>7</v>
@@ -39970,7 +39970,7 @@
         <v>3</v>
       </c>
       <c r="C2827">
-        <v>31.10204887390137</v>
+        <v>31.10223197937012</v>
       </c>
       <c r="D2827" t="s">
         <v>7</v>
@@ -40040,7 +40040,7 @@
         <v>3</v>
       </c>
       <c r="C2832">
-        <v>8.369928359985352</v>
+        <v>8.369965553283691</v>
       </c>
       <c r="D2832" t="s">
         <v>7</v>
@@ -40320,7 +40320,7 @@
         <v>3</v>
       </c>
       <c r="C2852">
-        <v>6.659634590148926</v>
+        <v>6.660175323486328</v>
       </c>
       <c r="D2852" t="s">
         <v>7</v>
@@ -40978,7 +40978,7 @@
         <v>3</v>
       </c>
       <c r="C2899">
-        <v>1.43876588344574</v>
+        <v>1.438713312149048</v>
       </c>
       <c r="D2899" t="s">
         <v>7</v>
@@ -41118,7 +41118,7 @@
         <v>3</v>
       </c>
       <c r="C2909">
-        <v>0.6287172436714172</v>
+        <v>0.6285755634307861</v>
       </c>
       <c r="D2909" t="s">
         <v>7</v>
@@ -41146,7 +41146,7 @@
         <v>3</v>
       </c>
       <c r="C2911">
-        <v>6.283509731292725</v>
+        <v>6.283548355102539</v>
       </c>
       <c r="D2911" t="s">
         <v>7</v>
@@ -41174,7 +41174,7 @@
         <v>3</v>
       </c>
       <c r="C2913">
-        <v>13.26520347595215</v>
+        <v>13.26519680023193</v>
       </c>
       <c r="D2913" t="s">
         <v>7</v>
@@ -42266,7 +42266,7 @@
         <v>3</v>
       </c>
       <c r="C2991">
-        <v>11.33892154693604</v>
+        <v>11.33905982971191</v>
       </c>
       <c r="D2991" t="s">
         <v>7</v>
@@ -42280,7 +42280,7 @@
         <v>3</v>
       </c>
       <c r="C2992">
-        <v>10.10411357879639</v>
+        <v>10.10420894622803</v>
       </c>
       <c r="D2992" t="s">
         <v>7</v>
@@ -42350,7 +42350,7 @@
         <v>3</v>
       </c>
       <c r="C2997">
-        <v>1.355066895484924</v>
+        <v>1.355299472808838</v>
       </c>
       <c r="D2997" t="s">
         <v>7</v>
@@ -42392,7 +42392,7 @@
         <v>3</v>
       </c>
       <c r="C3000">
-        <v>21.31108093261719</v>
+        <v>21.3104133605957</v>
       </c>
       <c r="D3000" t="s">
         <v>7</v>
@@ -42742,7 +42742,7 @@
         <v>3</v>
       </c>
       <c r="C3025">
-        <v>2.350210428237915</v>
+        <v>2.350382566452026</v>
       </c>
       <c r="D3025" t="s">
         <v>7</v>
@@ -42896,7 +42896,7 @@
         <v>3</v>
       </c>
       <c r="C3036">
-        <v>4.040666103363037</v>
+        <v>4.040811538696289</v>
       </c>
       <c r="D3036" t="s">
         <v>7</v>
@@ -43218,7 +43218,7 @@
         <v>3</v>
       </c>
       <c r="C3059">
-        <v>12.69810581207275</v>
+        <v>12.69805526733398</v>
       </c>
       <c r="D3059" t="s">
         <v>7</v>
@@ -44324,7 +44324,7 @@
         <v>3</v>
       </c>
       <c r="C3138">
-        <v>10.78065204620361</v>
+        <v>10.78024482727051</v>
       </c>
       <c r="D3138" t="s">
         <v>7</v>
@@ -44338,7 +44338,7 @@
         <v>3</v>
       </c>
       <c r="C3139">
-        <v>6.304654121398926</v>
+        <v>6.304279804229736</v>
       </c>
       <c r="D3139" t="s">
         <v>7</v>
@@ -44422,7 +44422,7 @@
         <v>3</v>
       </c>
       <c r="C3145">
-        <v>2.167692422866821</v>
+        <v>2.167529344558716</v>
       </c>
       <c r="D3145" t="s">
         <v>7</v>
@@ -44436,7 +44436,7 @@
         <v>3</v>
       </c>
       <c r="C3146">
-        <v>10.23832416534424</v>
+        <v>10.23832511901855</v>
       </c>
       <c r="D3146" t="s">
         <v>7</v>
@@ -44450,7 +44450,7 @@
         <v>3</v>
       </c>
       <c r="C3147">
-        <v>5.356759071350098</v>
+        <v>5.356404781341553</v>
       </c>
       <c r="D3147" t="s">
         <v>7</v>
@@ -44660,7 +44660,7 @@
         <v>3</v>
       </c>
       <c r="C3162">
-        <v>28.28165817260742</v>
+        <v>28.28163719177246</v>
       </c>
       <c r="D3162" t="s">
         <v>7</v>
@@ -44688,7 +44688,7 @@
         <v>3</v>
       </c>
       <c r="C3164">
-        <v>4.796861171722412</v>
+        <v>4.796807765960693</v>
       </c>
       <c r="D3164" t="s">
         <v>7</v>
@@ -45290,7 +45290,7 @@
         <v>3</v>
       </c>
       <c r="C3207">
-        <v>0.7754853963851929</v>
+        <v>0.7755440473556519</v>
       </c>
       <c r="D3207" t="s">
         <v>7</v>
@@ -45570,7 +45570,7 @@
         <v>3</v>
       </c>
       <c r="C3227">
-        <v>7.328558921813965</v>
+        <v>7.328512668609619</v>
       </c>
       <c r="D3227" t="s">
         <v>7</v>
@@ -45640,7 +45640,7 @@
         <v>3</v>
       </c>
       <c r="C3232">
-        <v>2.403213739395142</v>
+        <v>2.402968883514404</v>
       </c>
       <c r="D3232" t="s">
         <v>7</v>
@@ -46172,7 +46172,7 @@
         <v>3</v>
       </c>
       <c r="C3270">
-        <v>4.042686462402344</v>
+        <v>4.042465209960938</v>
       </c>
       <c r="D3270" t="s">
         <v>7</v>
@@ -46186,7 +46186,7 @@
         <v>3</v>
       </c>
       <c r="C3271">
-        <v>310.4156799316406</v>
+        <v>310.4169921875</v>
       </c>
       <c r="D3271" t="s">
         <v>7</v>
@@ -46214,7 +46214,7 @@
         <v>3</v>
       </c>
       <c r="C3273">
-        <v>316.5959167480469</v>
+        <v>316.5954895019531</v>
       </c>
       <c r="D3273" t="s">
         <v>7</v>
@@ -46228,7 +46228,7 @@
         <v>3</v>
       </c>
       <c r="C3274">
-        <v>6.779874324798584</v>
+        <v>6.779942512512207</v>
       </c>
       <c r="D3274" t="s">
         <v>7</v>
@@ -46592,7 +46592,7 @@
         <v>3</v>
       </c>
       <c r="C3300">
-        <v>10.36637210845947</v>
+        <v>10.36646461486816</v>
       </c>
       <c r="D3300" t="s">
         <v>7</v>
@@ -46606,7 +46606,7 @@
         <v>3</v>
       </c>
       <c r="C3301">
-        <v>21.34156799316406</v>
+        <v>21.34167098999023</v>
       </c>
       <c r="D3301" t="s">
         <v>7</v>
@@ -46914,7 +46914,7 @@
         <v>3</v>
       </c>
       <c r="C3323">
-        <v>47.4824333190918</v>
+        <v>47.48281097412109</v>
       </c>
       <c r="D3323" t="s">
         <v>7</v>
@@ -46956,7 +46956,7 @@
         <v>3</v>
       </c>
       <c r="C3326">
-        <v>0.4847044348716736</v>
+        <v>0.4845982789993286</v>
       </c>
       <c r="D3326" t="s">
         <v>7</v>
@@ -47026,7 +47026,7 @@
         <v>3</v>
       </c>
       <c r="C3331">
-        <v>275.9373779296875</v>
+        <v>275.9371948242188</v>
       </c>
       <c r="D3331" t="s">
         <v>7</v>
@@ -47194,7 +47194,7 @@
         <v>3</v>
       </c>
       <c r="C3343">
-        <v>1.377251863479614</v>
+        <v>1.377135872840881</v>
       </c>
       <c r="D3343" t="s">
         <v>7</v>
@@ -47222,7 +47222,7 @@
         <v>3</v>
       </c>
       <c r="C3345">
-        <v>0.9817008376121521</v>
+        <v>0.9822119474411011</v>
       </c>
       <c r="D3345" t="s">
         <v>7</v>
@@ -48230,7 +48230,7 @@
         <v>3</v>
       </c>
       <c r="C3417">
-        <v>1.245333552360535</v>
+        <v>1.245585799217224</v>
       </c>
       <c r="D3417" t="s">
         <v>7</v>
@@ -48258,7 +48258,7 @@
         <v>3</v>
       </c>
       <c r="C3419">
-        <v>16.99402046203613</v>
+        <v>16.9947395324707</v>
       </c>
       <c r="D3419" t="s">
         <v>7</v>
@@ -48300,7 +48300,7 @@
         <v>3</v>
       </c>
       <c r="C3422">
-        <v>3.807491302490234</v>
+        <v>3.807981491088867</v>
       </c>
       <c r="D3422" t="s">
         <v>7</v>
@@ -48734,7 +48734,7 @@
         <v>3</v>
       </c>
       <c r="C3453">
-        <v>20.98472785949707</v>
+        <v>20.98484039306641</v>
       </c>
       <c r="D3453" t="s">
         <v>7</v>
@@ -48846,7 +48846,7 @@
         <v>4</v>
       </c>
       <c r="C3461">
-        <v>39.69337463378906</v>
+        <v>39.69457626342773</v>
       </c>
       <c r="D3461" t="s">
         <v>5</v>
@@ -48930,7 +48930,7 @@
         <v>4</v>
       </c>
       <c r="C3467">
-        <v>8.291285514831543</v>
+        <v>8.291616439819336</v>
       </c>
       <c r="D3467" t="s">
         <v>5</v>
@@ -48972,7 +48972,7 @@
         <v>4</v>
       </c>
       <c r="C3470">
-        <v>29.80306053161621</v>
+        <v>29.80315208435059</v>
       </c>
       <c r="D3470" t="s">
         <v>5</v>
@@ -48986,7 +48986,7 @@
         <v>4</v>
       </c>
       <c r="C3471">
-        <v>10.7253475189209</v>
+        <v>10.72504234313965</v>
       </c>
       <c r="D3471" t="s">
         <v>5</v>
@@ -49000,7 +49000,7 @@
         <v>4</v>
       </c>
       <c r="C3472">
-        <v>20.45170593261719</v>
+        <v>20.4524974822998</v>
       </c>
       <c r="D3472" t="s">
         <v>5</v>
@@ -49028,7 +49028,7 @@
         <v>4</v>
       </c>
       <c r="C3474">
-        <v>151.4419555664062</v>
+        <v>151.4413452148438</v>
       </c>
       <c r="D3474" t="s">
         <v>5</v>
@@ -49140,7 +49140,7 @@
         <v>4</v>
       </c>
       <c r="C3482">
-        <v>11.89004325866699</v>
+        <v>11.88975048065186</v>
       </c>
       <c r="D3482" t="s">
         <v>5</v>
@@ -49168,7 +49168,7 @@
         <v>4</v>
       </c>
       <c r="C3484">
-        <v>13.45300579071045</v>
+        <v>13.45301818847656</v>
       </c>
       <c r="D3484" t="s">
         <v>5</v>
@@ -49182,7 +49182,7 @@
         <v>4</v>
       </c>
       <c r="C3485">
-        <v>1.357110500335693</v>
+        <v>1.357224345207214</v>
       </c>
       <c r="D3485" t="s">
         <v>5</v>
@@ -49196,7 +49196,7 @@
         <v>4</v>
       </c>
       <c r="C3486">
-        <v>2.454389810562134</v>
+        <v>2.45451021194458</v>
       </c>
       <c r="D3486" t="s">
         <v>5</v>
@@ -49938,7 +49938,7 @@
         <v>4</v>
       </c>
       <c r="C3539">
-        <v>23.69045829772949</v>
+        <v>23.6915397644043</v>
       </c>
       <c r="D3539" t="s">
         <v>5</v>
@@ -50092,7 +50092,7 @@
         <v>4</v>
       </c>
       <c r="C3550">
-        <v>8.073821067810059</v>
+        <v>8.073988914489746</v>
       </c>
       <c r="D3550" t="s">
         <v>5</v>
@@ -50190,7 +50190,7 @@
         <v>4</v>
       </c>
       <c r="C3557">
-        <v>15.80598545074463</v>
+        <v>15.80572128295898</v>
       </c>
       <c r="D3557" t="s">
         <v>5</v>
@@ -50232,7 +50232,7 @@
         <v>4</v>
       </c>
       <c r="C3560">
-        <v>59.955810546875</v>
+        <v>59.95587921142578</v>
       </c>
       <c r="D3560" t="s">
         <v>5</v>
@@ -50358,7 +50358,7 @@
         <v>4</v>
       </c>
       <c r="C3569">
-        <v>10.5667200088501</v>
+        <v>10.56630420684814</v>
       </c>
       <c r="D3569" t="s">
         <v>5</v>
@@ -50778,7 +50778,7 @@
         <v>4</v>
       </c>
       <c r="C3599">
-        <v>66.30635070800781</v>
+        <v>66.3062744140625</v>
       </c>
       <c r="D3599" t="s">
         <v>5</v>
@@ -50834,7 +50834,7 @@
         <v>4</v>
       </c>
       <c r="C3603">
-        <v>222.1725616455078</v>
+        <v>222.1720581054688</v>
       </c>
       <c r="D3603" t="s">
         <v>5</v>
@@ -51310,7 +51310,7 @@
         <v>4</v>
       </c>
       <c r="C3637">
-        <v>5.301963329315186</v>
+        <v>5.301977157592773</v>
       </c>
       <c r="D3637" t="s">
         <v>6</v>
@@ -51338,7 +51338,7 @@
         <v>4</v>
       </c>
       <c r="C3639">
-        <v>2.148112773895264</v>
+        <v>2.147878885269165</v>
       </c>
       <c r="D3639" t="s">
         <v>6</v>
@@ -51492,7 +51492,7 @@
         <v>4</v>
       </c>
       <c r="C3650">
-        <v>2.224888563156128</v>
+        <v>2.22475790977478</v>
       </c>
       <c r="D3650" t="s">
         <v>6</v>
@@ -51702,7 +51702,7 @@
         <v>4</v>
       </c>
       <c r="C3665">
-        <v>3.591592311859131</v>
+        <v>3.593931436538696</v>
       </c>
       <c r="D3665" t="s">
         <v>6</v>
@@ -51884,7 +51884,7 @@
         <v>4</v>
       </c>
       <c r="C3678">
-        <v>2.564774513244629</v>
+        <v>2.564753293991089</v>
       </c>
       <c r="D3678" t="s">
         <v>6</v>
@@ -51926,7 +51926,7 @@
         <v>4</v>
       </c>
       <c r="C3681">
-        <v>0.8662050366401672</v>
+        <v>0.8659741878509521</v>
       </c>
       <c r="D3681" t="s">
         <v>6</v>
@@ -52010,7 +52010,7 @@
         <v>4</v>
       </c>
       <c r="C3687">
-        <v>0.3071812987327576</v>
+        <v>0.3071952760219574</v>
       </c>
       <c r="D3687" t="s">
         <v>6</v>
@@ -52486,7 +52486,7 @@
         <v>4</v>
       </c>
       <c r="C3721">
-        <v>0.7208741903305054</v>
+        <v>0.7208681702613831</v>
       </c>
       <c r="D3721" t="s">
         <v>6</v>
@@ -54320,7 +54320,7 @@
         <v>4</v>
       </c>
       <c r="C3852">
-        <v>13.51898860931396</v>
+        <v>13.51899528503418</v>
       </c>
       <c r="D3852" t="s">
         <v>6</v>
@@ -54642,7 +54642,7 @@
         <v>4</v>
       </c>
       <c r="C3875">
-        <v>9.287583351135254</v>
+        <v>9.287365913391113</v>
       </c>
       <c r="D3875" t="s">
         <v>6</v>
@@ -54726,7 +54726,7 @@
         <v>4</v>
       </c>
       <c r="C3881">
-        <v>5.774820804595947</v>
+        <v>5.774881839752197</v>
       </c>
       <c r="D3881" t="s">
         <v>6</v>
@@ -56434,7 +56434,7 @@
         <v>4</v>
       </c>
       <c r="C4003">
-        <v>0.2012313902378082</v>
+        <v>0.2009620070457458</v>
       </c>
       <c r="D4003" t="s">
         <v>6</v>
@@ -56644,7 +56644,7 @@
         <v>4</v>
       </c>
       <c r="C4018">
-        <v>0.2980028986930847</v>
+        <v>0.2979889214038849</v>
       </c>
       <c r="D4018" t="s">
         <v>6</v>
@@ -57414,7 +57414,7 @@
         <v>4</v>
       </c>
       <c r="C4073">
-        <v>3.625988721847534</v>
+        <v>3.626003742218018</v>
       </c>
       <c r="D4073" t="s">
         <v>6</v>
@@ -58576,7 +58576,7 @@
         <v>4</v>
       </c>
       <c r="C4156">
-        <v>5.564904689788818</v>
+        <v>5.564661979675293</v>
       </c>
       <c r="D4156" t="s">
         <v>6</v>
@@ -58590,7 +58590,7 @@
         <v>4</v>
       </c>
       <c r="C4157">
-        <v>11.02313232421875</v>
+        <v>11.02335166931152</v>
       </c>
       <c r="D4157" t="s">
         <v>6</v>
@@ -58688,7 +58688,7 @@
         <v>4</v>
       </c>
       <c r="C4164">
-        <v>5.84735631942749</v>
+        <v>5.847320079803467</v>
       </c>
       <c r="D4164" t="s">
         <v>6</v>
@@ -59024,7 +59024,7 @@
         <v>4</v>
       </c>
       <c r="C4188">
-        <v>1.130048394203186</v>
+        <v>1.129982948303223</v>
       </c>
       <c r="D4188" t="s">
         <v>6</v>
@@ -59192,7 +59192,7 @@
         <v>4</v>
       </c>
       <c r="C4200">
-        <v>6.093163967132568</v>
+        <v>6.093189239501953</v>
       </c>
       <c r="D4200" t="s">
         <v>6</v>
@@ -59696,7 +59696,7 @@
         <v>4</v>
       </c>
       <c r="C4236">
-        <v>3.394950866699219</v>
+        <v>3.394710063934326</v>
       </c>
       <c r="D4236" t="s">
         <v>6</v>
@@ -59864,7 +59864,7 @@
         <v>4</v>
       </c>
       <c r="C4248">
-        <v>147.6087646484375</v>
+        <v>147.6080474853516</v>
       </c>
       <c r="D4248" t="s">
         <v>7</v>
@@ -59906,7 +59906,7 @@
         <v>4</v>
       </c>
       <c r="C4251">
-        <v>19.5550422668457</v>
+        <v>19.55595779418945</v>
       </c>
       <c r="D4251" t="s">
         <v>7</v>
@@ -60046,7 +60046,7 @@
         <v>4</v>
       </c>
       <c r="C4261">
-        <v>3.8458571434021</v>
+        <v>3.845826625823975</v>
       </c>
       <c r="D4261" t="s">
         <v>7</v>
@@ -60438,7 +60438,7 @@
         <v>4</v>
       </c>
       <c r="C4289">
-        <v>20.65306854248047</v>
+        <v>20.65307426452637</v>
       </c>
       <c r="D4289" t="s">
         <v>7</v>
@@ -60494,7 +60494,7 @@
         <v>4</v>
       </c>
       <c r="C4293">
-        <v>109.3824768066406</v>
+        <v>109.3819732666016</v>
       </c>
       <c r="D4293" t="s">
         <v>7</v>
@@ -60942,7 +60942,7 @@
         <v>4</v>
       </c>
       <c r="C4325">
-        <v>75.52243804931641</v>
+        <v>75.52253723144531</v>
       </c>
       <c r="D4325" t="s">
         <v>7</v>
@@ -61012,7 +61012,7 @@
         <v>4</v>
       </c>
       <c r="C4330">
-        <v>4.77350902557373</v>
+        <v>4.772766590118408</v>
       </c>
       <c r="D4330" t="s">
         <v>7</v>
@@ -61390,7 +61390,7 @@
         <v>4</v>
       </c>
       <c r="C4357">
-        <v>116.9675064086914</v>
+        <v>116.9682083129883</v>
       </c>
       <c r="D4357" t="s">
         <v>7</v>
@@ -61474,7 +61474,7 @@
         <v>4</v>
       </c>
       <c r="C4363">
-        <v>63.62757110595703</v>
+        <v>63.62775421142578</v>
       </c>
       <c r="D4363" t="s">
         <v>7</v>
@@ -61516,7 +61516,7 @@
         <v>4</v>
       </c>
       <c r="C4366">
-        <v>49.67968368530273</v>
+        <v>49.67967987060547</v>
       </c>
       <c r="D4366" t="s">
         <v>7</v>
@@ -61572,7 +61572,7 @@
         <v>4</v>
       </c>
       <c r="C4370">
-        <v>156.7650146484375</v>
+        <v>156.7648162841797</v>
       </c>
       <c r="D4370" t="s">
         <v>7</v>
